--- a/modele/eclairage.xlsx
+++ b/modele/eclairage.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project\action-21\reno-audit\modele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173F740B-C8A9-49C3-91EC-58BE1750574E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1356C992-BA9C-4601-B6E3-32D94CC5EB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="781" activeTab="1" xr2:uid="{BF4EE783-D743-4B41-B65A-54CFF4809DA7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="781" activeTab="3" xr2:uid="{BF4EE783-D743-4B41-B65A-54CFF4809DA7}"/>
   </bookViews>
   <sheets>
     <sheet name="modele" sheetId="53" r:id="rId1"/>
-    <sheet name="nhecl" sheetId="48" r:id="rId2"/>
+    <sheet name="nhj" sheetId="48" r:id="rId2"/>
+    <sheet name="nj" sheetId="54" r:id="rId3"/>
+    <sheet name="cecl_test" sheetId="55" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="51">
   <si>
     <t>mois</t>
   </si>
@@ -220,10 +222,22 @@
     <t>MM</t>
   </si>
   <si>
-    <t>nhecl</t>
-  </si>
-  <si>
     <t>Consommations d'éclairage</t>
+  </si>
+  <si>
+    <t>nhj</t>
+  </si>
+  <si>
+    <t>nh</t>
+  </si>
+  <si>
+    <t>nj</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>cecl</t>
   </si>
 </sst>
 </file>
@@ -297,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -326,11 +340,188 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##,#00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -479,35 +670,169 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>53899</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>160446</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5695302-B872-934E-9765-DF6A75A1D983}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="6973"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6217920" y="0"/>
+          <a:ext cx="5997499" cy="4915326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>8142</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>53650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19BB9B54-1620-5BFA-B9CF-9C2ED0FB4C9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6141720" y="4892040"/>
+          <a:ext cx="6027942" cy="3574090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1A2A29EE-5D99-4026-ADB9-BD34D4BB4926}" name="modele" displayName="modele" ref="A1:J8" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1A2A29EE-5D99-4026-ADB9-BD34D4BB4926}" name="modele" displayName="modele" ref="A1:J8" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:J8" xr:uid="{1A2A29EE-5D99-4026-ADB9-BD34D4BB4926}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I2">
     <sortCondition ref="B1:B2"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{28396737-4DE7-4743-AB7C-86AEBCA5DBBE}" name="domaine" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{D2D1F04F-726D-42B7-9653-A9BF208232BC}" name="scope" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{9C613EB9-8E29-4F3C-A541-1C0BB9A4BAC6}" name="variable" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{C4CA3D39-5427-4DC7-8988-4D95E39A0A95}" name="description" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{A6B9EA90-1D28-4048-891B-ACB3E947A907}" name="type" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{05F4B087-3951-48F4-8FDF-6A04A40D641F}" name="format" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{124E631C-941F-4B1B-8A13-0CB7BCC94F51}" name="unite" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{539A72DB-69E7-4998-9D72-B27EBF4830EC}" name="statut" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{CAA04A03-2F1C-402F-B171-382FC235F88A}" name="nullable" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{660E6D10-4873-432D-A121-58D9EF3F4C73}" name="opendata_xpath" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{28396737-4DE7-4743-AB7C-86AEBCA5DBBE}" name="domaine" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{D2D1F04F-726D-42B7-9653-A9BF208232BC}" name="scope" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{9C613EB9-8E29-4F3C-A541-1C0BB9A4BAC6}" name="variable" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{C4CA3D39-5427-4DC7-8988-4D95E39A0A95}" name="description" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{A6B9EA90-1D28-4048-891B-ACB3E947A907}" name="type" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{05F4B087-3951-48F4-8FDF-6A04A40D641F}" name="format" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{124E631C-941F-4B1B-8A13-0CB7BCC94F51}" name="unite" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{539A72DB-69E7-4998-9D72-B27EBF4830EC}" name="statut" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{CAA04A03-2F1C-402F-B171-382FC235F88A}" name="nullable" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{660E6D10-4873-432D-A121-58D9EF3F4C73}" name="opendata_xpath" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8BCE3C81-A311-4650-8698-36B1E960CD78}" name="njecl" displayName="njecl" ref="A1:C97" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C97" xr:uid="{8BCE3C81-A311-4650-8698-36B1E960CD78}"/>
-  <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{D0896146-B106-4A75-A7C7-54D93DF2692F}" name="mois" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{ED9428FA-8019-409F-AE99-D0F39E268C55}" name="zone_climatique" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{1B6E76BC-C235-4801-968D-506DD295F0B4}" name="nhecl" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8BCE3C81-A311-4650-8698-36B1E960CD78}" name="njecl" displayName="njecl" ref="A1:E97" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:E97" xr:uid="{8BCE3C81-A311-4650-8698-36B1E960CD78}"/>
+  <tableColumns count="5">
+    <tableColumn id="2" xr3:uid="{D0896146-B106-4A75-A7C7-54D93DF2692F}" name="mois" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{ED9428FA-8019-409F-AE99-D0F39E268C55}" name="zone_climatique" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{1B6E76BC-C235-4801-968D-506DD295F0B4}" name="nhj" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{C4DF8A31-6ABB-4DFD-B5A1-5A9BBA4C8D7C}" name="nh" dataDxfId="5">
+      <calculatedColumnFormula>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{F458E4CD-D5B2-45F6-ABCB-D2167CE00DA3}" name="cecl" dataDxfId="4">
+      <calculatedColumnFormula>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F31CD52-79CD-467B-89EB-538F0C2AA60E}" name="nj" displayName="nj" ref="A1:B14" totalsRowCount="1" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:B13" xr:uid="{5F31CD52-79CD-467B-89EB-538F0C2AA60E}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{23BA070D-499C-4F26-8D22-DAB07554A35C}" name="mois" totalsRowLabel="Total" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{5E46C0E5-7771-4AF2-841D-13B67DC4CB35}" name="nj" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{020F7C5B-690B-4ABE-BDD5-9EDD9BCECA45}" name="njecl4" displayName="njecl4" ref="A1:B9" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:B9" xr:uid="{020F7C5B-690B-4ABE-BDD5-9EDD9BCECA45}"/>
+  <tableColumns count="2">
+    <tableColumn id="3" xr3:uid="{45A6A44E-2C7D-4800-A1BE-E70988ADCAB4}" name="zone_climatique" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{CF175188-B2D0-4E40-966B-C48537B60AFC}" name="cecl" dataDxfId="0">
+      <calculatedColumnFormula>SUMIF(njecl[zone_climatique],njecl4[[#This Row],[zone_climatique]],njecl[cecl])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -877,7 +1202,7 @@
         <v>36</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>25</v>
@@ -1056,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7246143C-2995-4560-823F-E5FA64ED814B}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1069,7 +1394,7 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1077,10 +1402,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1090,8 +1421,16 @@
       <c r="C2" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>217</v>
+      </c>
+      <c r="E2" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.27342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1101,8 +1440,16 @@
       <c r="C3" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>168</v>
+      </c>
+      <c r="E3" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.21168000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1112,8 +1459,16 @@
       <c r="C4" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>155</v>
+      </c>
+      <c r="E4" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.1953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1123,8 +1478,16 @@
       <c r="C5" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="E5" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.1134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1134,8 +1497,16 @@
       <c r="C6" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>62</v>
+      </c>
+      <c r="E6" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>7.8120000000000009E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1145,8 +1516,16 @@
       <c r="C7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E7" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>3.78E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1156,8 +1535,16 @@
       <c r="C8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="E8" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>3.9060000000000004E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1167,8 +1554,16 @@
       <c r="C9" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>93</v>
+      </c>
+      <c r="E9" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.11718000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1178,8 +1573,16 @@
       <c r="C10" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="E10" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.1512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1189,8 +1592,16 @@
       <c r="C11" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>186</v>
+      </c>
+      <c r="E11" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.23436000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1200,8 +1611,16 @@
       <c r="C12" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>180</v>
+      </c>
+      <c r="E12" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.2268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1211,8 +1630,16 @@
       <c r="C13" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>168</v>
+      </c>
+      <c r="E13" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.21168000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -1222,8 +1649,16 @@
       <c r="C14" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>186</v>
+      </c>
+      <c r="E14" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.23436000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -1233,8 +1668,16 @@
       <c r="C15" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>168</v>
+      </c>
+      <c r="E15" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.21168000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>3</v>
       </c>
@@ -1244,8 +1687,16 @@
       <c r="C16" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>155</v>
+      </c>
+      <c r="E16" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.1953</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>4</v>
       </c>
@@ -1255,8 +1706,16 @@
       <c r="C17" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="E17" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.1134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>5</v>
       </c>
@@ -1266,8 +1725,16 @@
       <c r="C18" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>62</v>
+      </c>
+      <c r="E18" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>7.8120000000000009E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>6</v>
       </c>
@@ -1277,8 +1744,16 @@
       <c r="C19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E19" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>3.78E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>7</v>
       </c>
@@ -1288,8 +1763,16 @@
       <c r="C20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="E20" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>3.9060000000000004E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>8</v>
       </c>
@@ -1299,8 +1782,16 @@
       <c r="C21" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>93</v>
+      </c>
+      <c r="E21" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.11718000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>9</v>
       </c>
@@ -1310,8 +1801,16 @@
       <c r="C22" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="E22" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.1512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>10</v>
       </c>
@@ -1321,8 +1820,16 @@
       <c r="C23" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>186</v>
+      </c>
+      <c r="E23" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.23436000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>11</v>
       </c>
@@ -1332,8 +1839,16 @@
       <c r="C24" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>180</v>
+      </c>
+      <c r="E24" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.2268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>12</v>
       </c>
@@ -1343,8 +1858,16 @@
       <c r="C25" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>144</v>
+      </c>
+      <c r="E25" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.18143999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -1354,8 +1877,16 @@
       <c r="C26" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>186</v>
+      </c>
+      <c r="E26" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.23436000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>2</v>
       </c>
@@ -1365,8 +1896,16 @@
       <c r="C27" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>168</v>
+      </c>
+      <c r="E27" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.21168000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>3</v>
       </c>
@@ -1376,8 +1915,16 @@
       <c r="C28" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>155</v>
+      </c>
+      <c r="E28" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.1953</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>4</v>
       </c>
@@ -1387,8 +1934,16 @@
       <c r="C29" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="E29" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.1134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>5</v>
       </c>
@@ -1398,8 +1953,16 @@
       <c r="C30" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>62</v>
+      </c>
+      <c r="E30" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>7.8120000000000009E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>6</v>
       </c>
@@ -1409,8 +1972,16 @@
       <c r="C31" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E31" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>3.78E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>7</v>
       </c>
@@ -1420,8 +1991,16 @@
       <c r="C32" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>62</v>
+      </c>
+      <c r="E32" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>7.8120000000000009E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>8</v>
       </c>
@@ -1431,8 +2010,16 @@
       <c r="C33" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>93</v>
+      </c>
+      <c r="E33" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.11718000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>9</v>
       </c>
@@ -1442,8 +2029,16 @@
       <c r="C34" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="E34" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.1512</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>10</v>
       </c>
@@ -1453,8 +2048,16 @@
       <c r="C35" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>186</v>
+      </c>
+      <c r="E35" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.23436000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>11</v>
       </c>
@@ -1464,8 +2067,16 @@
       <c r="C36" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>180</v>
+      </c>
+      <c r="E36" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.2268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>12</v>
       </c>
@@ -1475,8 +2086,16 @@
       <c r="C37" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>144</v>
+      </c>
+      <c r="E37" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.18143999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>1</v>
       </c>
@@ -1486,8 +2105,16 @@
       <c r="C38" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>217</v>
+      </c>
+      <c r="E38" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.27342</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>2</v>
       </c>
@@ -1497,8 +2124,16 @@
       <c r="C39" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>168</v>
+      </c>
+      <c r="E39" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.21168000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>3</v>
       </c>
@@ -1508,8 +2143,16 @@
       <c r="C40" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>155</v>
+      </c>
+      <c r="E40" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.1953</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>4</v>
       </c>
@@ -1519,8 +2162,16 @@
       <c r="C41" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="E41" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.1134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>5</v>
       </c>
@@ -1530,8 +2181,16 @@
       <c r="C42" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>62</v>
+      </c>
+      <c r="E42" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>7.8120000000000009E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>6</v>
       </c>
@@ -1541,8 +2200,16 @@
       <c r="C43" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E43" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>3.78E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>7</v>
       </c>
@@ -1552,8 +2219,16 @@
       <c r="C44" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="E44" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>3.9060000000000004E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>8</v>
       </c>
@@ -1563,8 +2238,16 @@
       <c r="C45" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>93</v>
+      </c>
+      <c r="E45" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.11718000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>9</v>
       </c>
@@ -1574,8 +2257,16 @@
       <c r="C46" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="E46" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.1512</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>10</v>
       </c>
@@ -1585,8 +2276,16 @@
       <c r="C47" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>186</v>
+      </c>
+      <c r="E47" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.23436000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>11</v>
       </c>
@@ -1596,8 +2295,16 @@
       <c r="C48" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>180</v>
+      </c>
+      <c r="E48" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.2268</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>12</v>
       </c>
@@ -1607,8 +2314,16 @@
       <c r="C49" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>168</v>
+      </c>
+      <c r="E49" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.21168000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>1</v>
       </c>
@@ -1618,8 +2333,16 @@
       <c r="C50" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>217</v>
+      </c>
+      <c r="E50" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.27342</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>2</v>
       </c>
@@ -1629,8 +2352,16 @@
       <c r="C51" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>168</v>
+      </c>
+      <c r="E51" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.21168000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>3</v>
       </c>
@@ -1640,8 +2371,16 @@
       <c r="C52" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>155</v>
+      </c>
+      <c r="E52" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.1953</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>4</v>
       </c>
@@ -1651,8 +2390,16 @@
       <c r="C53" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="E53" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.1134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>5</v>
       </c>
@@ -1662,8 +2409,16 @@
       <c r="C54" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>62</v>
+      </c>
+      <c r="E54" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>7.8120000000000009E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>6</v>
       </c>
@@ -1673,8 +2428,16 @@
       <c r="C55" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E55" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>3.78E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>7</v>
       </c>
@@ -1684,8 +2447,16 @@
       <c r="C56" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>62</v>
+      </c>
+      <c r="E56" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>7.8120000000000009E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>8</v>
       </c>
@@ -1695,8 +2466,16 @@
       <c r="C57" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>93</v>
+      </c>
+      <c r="E57" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.11718000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>9</v>
       </c>
@@ -1706,8 +2485,16 @@
       <c r="C58" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="E58" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.1512</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>10</v>
       </c>
@@ -1717,8 +2504,16 @@
       <c r="C59" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>186</v>
+      </c>
+      <c r="E59" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.23436000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>11</v>
       </c>
@@ -1728,8 +2523,16 @@
       <c r="C60" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>180</v>
+      </c>
+      <c r="E60" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.2268</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>12</v>
       </c>
@@ -1739,8 +2542,16 @@
       <c r="C61" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>168</v>
+      </c>
+      <c r="E61" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.21168000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>1</v>
       </c>
@@ -1750,8 +2561,16 @@
       <c r="C62" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>186</v>
+      </c>
+      <c r="E62" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.23436000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>2</v>
       </c>
@@ -1761,8 +2580,16 @@
       <c r="C63" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>168</v>
+      </c>
+      <c r="E63" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.21168000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>3</v>
       </c>
@@ -1772,8 +2599,16 @@
       <c r="C64" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>155</v>
+      </c>
+      <c r="E64" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.1953</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>4</v>
       </c>
@@ -1783,8 +2618,16 @@
       <c r="C65" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="E65" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.1512</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>5</v>
       </c>
@@ -1794,8 +2637,16 @@
       <c r="C66" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>62</v>
+      </c>
+      <c r="E66" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>7.8120000000000009E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>6</v>
       </c>
@@ -1805,8 +2656,16 @@
       <c r="C67" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="E67" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>7.5600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>7</v>
       </c>
@@ -1816,8 +2675,16 @@
       <c r="C68" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>62</v>
+      </c>
+      <c r="E68" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>7.8120000000000009E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>8</v>
       </c>
@@ -1827,8 +2694,16 @@
       <c r="C69" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>93</v>
+      </c>
+      <c r="E69" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.11718000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>9</v>
       </c>
@@ -1838,8 +2713,16 @@
       <c r="C70" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="E70" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>10</v>
       </c>
@@ -1849,8 +2732,16 @@
       <c r="C71" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>186</v>
+      </c>
+      <c r="E71" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.23436000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>11</v>
       </c>
@@ -1860,8 +2751,16 @@
       <c r="C72" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>180</v>
+      </c>
+      <c r="E72" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.2268</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>12</v>
       </c>
@@ -1871,8 +2770,16 @@
       <c r="C73" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>144</v>
+      </c>
+      <c r="E73" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.18143999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>1</v>
       </c>
@@ -1882,8 +2789,16 @@
       <c r="C74" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>186</v>
+      </c>
+      <c r="E74" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.23436000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>2</v>
       </c>
@@ -1893,8 +2808,16 @@
       <c r="C75" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>168</v>
+      </c>
+      <c r="E75" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.21168000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>3</v>
       </c>
@@ -1904,8 +2827,16 @@
       <c r="C76" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>155</v>
+      </c>
+      <c r="E76" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.1953</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>4</v>
       </c>
@@ -1915,8 +2846,16 @@
       <c r="C77" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="E77" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.1512</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>5</v>
       </c>
@@ -1926,8 +2865,16 @@
       <c r="C78" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>62</v>
+      </c>
+      <c r="E78" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>7.8120000000000009E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>6</v>
       </c>
@@ -1937,8 +2884,16 @@
       <c r="C79" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="E79" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>7.5600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>7</v>
       </c>
@@ -1948,8 +2903,16 @@
       <c r="C80" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>62</v>
+      </c>
+      <c r="E80" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>7.8120000000000009E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>8</v>
       </c>
@@ -1959,8 +2922,16 @@
       <c r="C81" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>93</v>
+      </c>
+      <c r="E81" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.11718000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>9</v>
       </c>
@@ -1970,8 +2941,16 @@
       <c r="C82" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="E82" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>10</v>
       </c>
@@ -1981,8 +2960,16 @@
       <c r="C83" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>186</v>
+      </c>
+      <c r="E83" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.23436000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>11</v>
       </c>
@@ -1992,8 +2979,16 @@
       <c r="C84" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>180</v>
+      </c>
+      <c r="E84" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.2268</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>12</v>
       </c>
@@ -2003,8 +2998,16 @@
       <c r="C85" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>144</v>
+      </c>
+      <c r="E85" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.18143999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>1</v>
       </c>
@@ -2014,8 +3017,16 @@
       <c r="C86" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>186</v>
+      </c>
+      <c r="E86" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.23436000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>2</v>
       </c>
@@ -2025,8 +3036,16 @@
       <c r="C87" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>168</v>
+      </c>
+      <c r="E87" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.21168000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>3</v>
       </c>
@@ -2036,8 +3055,16 @@
       <c r="C88" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>155</v>
+      </c>
+      <c r="E88" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.1953</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>4</v>
       </c>
@@ -2047,8 +3074,16 @@
       <c r="C89" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="E89" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.1512</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>5</v>
       </c>
@@ -2058,8 +3093,16 @@
       <c r="C90" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>62</v>
+      </c>
+      <c r="E90" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>7.8120000000000009E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>6</v>
       </c>
@@ -2069,8 +3112,16 @@
       <c r="C91" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="E91" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>7.5600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>7</v>
       </c>
@@ -2080,8 +3131,16 @@
       <c r="C92" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>62</v>
+      </c>
+      <c r="E92" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>7.8120000000000009E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>8</v>
       </c>
@@ -2091,8 +3150,16 @@
       <c r="C93" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>93</v>
+      </c>
+      <c r="E93" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.11718000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>9</v>
       </c>
@@ -2102,8 +3169,16 @@
       <c r="C94" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="E94" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.1512</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>10</v>
       </c>
@@ -2113,8 +3188,16 @@
       <c r="C95" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>186</v>
+      </c>
+      <c r="E95" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.23436000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>11</v>
       </c>
@@ -2124,8 +3207,16 @@
       <c r="C96" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="E96" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>12</v>
       </c>
@@ -2134,14 +3225,522 @@
       </c>
       <c r="C97" s="3">
         <v>6</v>
+      </c>
+      <c r="D97" s="3">
+        <f>njecl[[#This Row],[nhj]]*VLOOKUP(njecl[[#This Row],[mois]],nj[],2,FALSE)</f>
+        <v>144</v>
+      </c>
+      <c r="E97" s="3">
+        <f>0.9 * 1.4 * njecl[[#This Row],[nh]] / 1000</f>
+        <v>0.18143999999999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8D1265-A866-4707-BBE3-E0384A702A3E}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="11.5546875" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="11">
+        <f>SUBTOTAL(109,nj[nj])</f>
+        <v>358</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ECF9D02-AA0F-4458-8900-A448D404CC9A}">
+  <dimension ref="A1:B97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <f>SUMIF(njecl[zone_climatique],njecl4[[#This Row],[zone_climatique]],njecl[cecl])</f>
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <f>SUMIF(njecl[zone_climatique],njecl4[[#This Row],[zone_climatique]],njecl[cecl])</f>
+        <v>1.8206999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <f>SUMIF(njecl[zone_climatique],njecl4[[#This Row],[zone_climatique]],njecl[cecl])</f>
+        <v>1.8597599999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <f>SUMIF(njecl[zone_climatique],njecl4[[#This Row],[zone_climatique]],njecl[cecl])</f>
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <f>SUMIF(njecl[zone_climatique],njecl4[[#This Row],[zone_climatique]],njecl[cecl])</f>
+        <v>1.92906</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <f>SUMIF(njecl[zone_climatique],njecl4[[#This Row],[zone_climatique]],njecl[cecl])</f>
+        <v>1.9731600000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <f>SUMIF(njecl[zone_climatique],njecl4[[#This Row],[zone_climatique]],njecl[cecl])</f>
+        <v>1.9731600000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <f>SUMIF(njecl[zone_climatique],njecl4[[#This Row],[zone_climatique]],njecl[cecl])</f>
+        <v>1.8975600000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>